--- a/new-stats/stade-de-reims.xlsx
+++ b/new-stats/stade-de-reims.xlsx
@@ -2256,22 +2256,62 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>27/04/2025</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="M32" t="n">
+        <v>8</v>
+      </c>
+      <c r="N32" t="n">
+        <v>12</v>
+      </c>
+      <c r="O32" t="n">
+        <v>3</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>

--- a/new-stats/stade-de-reims.xlsx
+++ b/new-stats/stade-de-reims.xlsx
@@ -2314,22 +2314,62 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>02/05/2025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M33" t="n">
+        <v>16</v>
+      </c>
+      <c r="N33" t="n">
+        <v>8</v>
+      </c>
+      <c r="O33" t="n">
+        <v>3</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>

--- a/new-stats/stade-de-reims.xlsx
+++ b/new-stats/stade-de-reims.xlsx
@@ -2372,22 +2372,62 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>St. Etienne</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="M34" t="n">
+        <v>19</v>
+      </c>
+      <c r="N34" t="n">
+        <v>9</v>
+      </c>
+      <c r="O34" t="n">
+        <v>3</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>

--- a/new-stats/stade-de-reims.xlsx
+++ b/new-stats/stade-de-reims.xlsx
@@ -2430,22 +2430,62 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="n">
+        <v>21</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>

--- a/new-stats/stade-de-reims.xlsx
+++ b/new-stats/stade-de-reims.xlsx
@@ -516,22 +516,62 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Amiens</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M2" t="n">
+        <v>10</v>
+      </c>
+      <c r="N2" t="n">
+        <v>10</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>

--- a/new-stats/stade-de-reims.xlsx
+++ b/new-stats/stade-de-reims.xlsx
@@ -574,22 +574,62 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>16/08/2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="M3" t="n">
+        <v>16</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>

--- a/new-stats/stade-de-reims.xlsx
+++ b/new-stats/stade-de-reims.xlsx
@@ -632,22 +632,62 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pau FC</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>

--- a/new-stats/stade-de-reims.xlsx
+++ b/new-stats/stade-de-reims.xlsx
@@ -690,22 +690,62 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>30/08/2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Le Mans</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="M5" t="n">
+        <v>12</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>

--- a/new-stats/stade-de-reims.xlsx
+++ b/new-stats/stade-de-reims.xlsx
@@ -748,22 +748,62 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13/09/2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>15</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>7</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>

--- a/new-stats/stade-de-reims.xlsx
+++ b/new-stats/stade-de-reims.xlsx
@@ -806,40 +806,120 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>St. Etienne</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M7" t="n">
+        <v>17</v>
+      </c>
+      <c r="N7" t="n">
+        <v>16</v>
+      </c>
+      <c r="O7" t="n">
+        <v>7</v>
+      </c>
+      <c r="P7" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>23/09/2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="M8" t="n">
+        <v>18</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>

--- a/new-stats/stade-de-reims.xlsx
+++ b/new-stats/stade-de-reims.xlsx
@@ -922,22 +922,62 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>26/09/2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nancy</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>8</v>
+      </c>
+      <c r="N9" t="n">
+        <v>20</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>

--- a/new-stats/stade-de-reims.xlsx
+++ b/new-stats/stade-de-reims.xlsx
@@ -980,22 +980,62 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>04/10/2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Grenoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M10" t="n">
+        <v>21</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6</v>
+      </c>
+      <c r="O10" t="n">
+        <v>8</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>

--- a/new-stats/stade-de-reims.xlsx
+++ b/new-stats/stade-de-reims.xlsx
@@ -1038,22 +1038,62 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>17/10/2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="M11" t="n">
+        <v>13</v>
+      </c>
+      <c r="N11" t="n">
+        <v>13</v>
+      </c>
+      <c r="O11" t="n">
+        <v>5</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
